--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Peruvian Segunda Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,66 +788,66 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Comerciantes FC</t>
+          <t>Union Omaha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Universidad Cesar Vallejo</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
+        <v>810</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K3" t="n">
         <v>680</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>750</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Union Omaha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,88 +961,88 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1120,70 +1120,70 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Boyaca Chico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Atletico Nacional Medellin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>38</v>
+        <v>5.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,34 +1231,34 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" t="n">
-        <v>50</v>
+        <v>3.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="S6" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,37 +1273,37 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.12</v>
+        <v>3.45</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.24</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
-        <v>6.8</v>
+        <v>2.92</v>
       </c>
       <c r="I7" t="n">
-        <v>8.800000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>1.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>2.52</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>3.95</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Uruguayan Segunda Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Boyaca Chico</t>
+          <t>Central Espanol</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Nacional Medellin</t>
+          <t>Atenas</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>7.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>1.73</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>1.76</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,94 +1501,94 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P8" t="n">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
+        <v>8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
         <v>5.2</v>
       </c>
-      <c r="T8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>4.1</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>75</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="AO8" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,396 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>1.49</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.92</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.39</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.58</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15.5</v>
+        <v>4.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>960</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>450</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Uruguayan Segunda Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Central Espanol</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Atenas</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:10:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Atlanta Utd</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
